--- a/Data Files/Senior_Companion_Data_CaringConn.xlsx
+++ b/Data Files/Senior_Companion_Data_CaringConn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pursuitsoftwarebiz-my.sharepoint.com/personal/palak_g_pursuitsoftware_biz/Documents/Desktop/Automation_CaringConnection/Data Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="110" documentId="8_{CD51E819-AC29-4917-8998-103D8C224094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B26B296-A56C-41D4-9876-3FCB14DF6BE9}"/>
+  <xr:revisionPtr revIDLastSave="133" documentId="8_{CD51E819-AC29-4917-8998-103D8C224094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97D6E907-A289-49ED-8373-5A5AE8658EDA}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{A4DF82C4-8118-4B38-8D30-1F820878FD09}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A4DF82C4-8118-4B38-8D30-1F820878FD09}"/>
   </bookViews>
   <sheets>
     <sheet name="Senior_Regression" sheetId="1" r:id="rId1"/>
@@ -295,31 +295,31 @@
     <t xml:space="preserve">health-wise, i've faced challenges with asthma, but with careful management and regular breathing exercises, i continue to pursue my passions with vigor. greetings, i'm harsh, a seasoned explorer in the journey of life, joyfully celebrating my 57 years of existence. </t>
   </si>
   <si>
-    <t>ethan100e@gmail.com</t>
-  </si>
-  <si>
-    <t>oliviao100@gmail.com</t>
-  </si>
-  <si>
-    <t>sophias100@gmail.com</t>
-  </si>
-  <si>
-    <t>naveenn100@gmail.com</t>
-  </si>
-  <si>
-    <t>emilye100@gmail.com</t>
-  </si>
-  <si>
-    <t>pgpalakg101@gmail.com</t>
-  </si>
-  <si>
-    <t>shrestha101@gmail.com</t>
-  </si>
-  <si>
-    <t>kanchans101@gmail.com</t>
-  </si>
-  <si>
-    <t>sagars1012@gmail.com</t>
+    <t>sagars127@gmail.com</t>
+  </si>
+  <si>
+    <t>emilye111@gmail.com</t>
+  </si>
+  <si>
+    <t>naveenn111@gmail.com</t>
+  </si>
+  <si>
+    <t>ethane111@gmail.com</t>
+  </si>
+  <si>
+    <t>oliviao111@gmail.com</t>
+  </si>
+  <si>
+    <t>sophias111@gmail.com</t>
+  </si>
+  <si>
+    <t>pgpalakg111@gmail.com</t>
+  </si>
+  <si>
+    <t>shrestha111@gmail.com</t>
+  </si>
+  <si>
+    <t>kanchans111@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -529,10 +529,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -834,8 +830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E753726-27AC-489B-84CE-9B6FED3476D1}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -888,7 +884,7 @@
         <v>464646</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>10</v>
@@ -917,7 +913,7 @@
         <v>464646</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>10</v>
@@ -946,7 +942,7 @@
         <v>464646</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>10</v>
@@ -984,8 +980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ED4CC9D-0592-479C-B19E-F0DCD2311CF0}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1038,7 +1034,7 @@
         <v>464646</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>10</v>
@@ -1067,7 +1063,7 @@
         <v>464646</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>10</v>
@@ -1096,7 +1092,7 @@
         <v>464646</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>10</v>
@@ -1119,7 +1115,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="ethan705e@gmail.com" xr:uid="{E198E24C-2B11-4995-AEB2-D8C54E73D9B1}"/>
+    <hyperlink ref="C2" r:id="rId1" display="ethane110@gmail.com" xr:uid="{E198E24C-2B11-4995-AEB2-D8C54E73D9B1}"/>
     <hyperlink ref="D2" r:id="rId2" xr:uid="{68B5CF63-2857-4C34-B2D7-3DC7431A9394}"/>
     <hyperlink ref="C3" r:id="rId3" display="oliviao705@gmail.com" xr:uid="{8EDEC40B-A76B-4EED-8AA0-F6F5274AC5CA}"/>
     <hyperlink ref="C4" r:id="rId4" display="sophias705@gmail.com" xr:uid="{38BBC401-E3F1-4869-85B0-84121428EC67}"/>
@@ -1134,7 +1130,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D38EEC9-5651-4FB5-BE61-3FCB28F1E2B5}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1184,7 +1180,7 @@
         <v>462046</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>10</v>
@@ -1269,7 +1265,7 @@
         <v>464646</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>10</v>
@@ -1303,8 +1299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97E75A75-98CA-46E2-9BAA-17D1C3E9032A}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1357,7 +1353,7 @@
         <v>464646</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>10</v>
@@ -1380,7 +1376,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{B626181D-4CAA-4874-BB64-9604C8EF91A1}"/>
+    <hyperlink ref="C2" r:id="rId1" display="emilye110@gmail.com" xr:uid="{B626181D-4CAA-4874-BB64-9604C8EF91A1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data Files/Senior_Companion_Data_CaringConn.xlsx
+++ b/Data Files/Senior_Companion_Data_CaringConn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pursuitsoftwarebiz-my.sharepoint.com/personal/palak_g_pursuitsoftware_biz/Documents/Desktop/Automation_CaringConnection/Data Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="133" documentId="8_{CD51E819-AC29-4917-8998-103D8C224094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97D6E907-A289-49ED-8373-5A5AE8658EDA}"/>
+  <xr:revisionPtr revIDLastSave="134" documentId="8_{CD51E819-AC29-4917-8998-103D8C224094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B0AD216-1A12-4E00-B55E-22227B8A1BFA}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A4DF82C4-8118-4B38-8D30-1F820878FD09}"/>
   </bookViews>
@@ -313,13 +313,13 @@
     <t>sophias111@gmail.com</t>
   </si>
   <si>
-    <t>pgpalakg111@gmail.com</t>
-  </si>
-  <si>
-    <t>shrestha111@gmail.com</t>
-  </si>
-  <si>
-    <t>kanchans111@gmail.com</t>
+    <t>pgpalakg133@gmail.com</t>
+  </si>
+  <si>
+    <t>shrestha133@gmail.com</t>
+  </si>
+  <si>
+    <t>kanchans133@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -830,8 +830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E753726-27AC-489B-84CE-9B6FED3476D1}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
